--- a/SignManageByFaceReg/out/artifacts/SignManageByFaceReg_war_exploded/download/studentsInfoList.xlsx
+++ b/SignManageByFaceReg/out/artifacts/SignManageByFaceReg_war_exploded/download/studentsInfoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tattoo/Java-Web/SignManageByFaceReg/web/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB73465-539A-AF41-8012-CBD99CF5B3A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A42DCC3-E77A-5E43-96C8-F5771281942D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{16F98E73-ABD4-FD4E-ADDE-F868B90B8AE0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,39 +49,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Users/tattoo/Downloads/毕业设计测试材料/welkin_02.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘生玺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Users/tattoo/Downloads/毕业设计测试材料/tattoo_01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘玉洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Users/tattoo/Downloads/毕业设计测试材料/test.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -450,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB7B4A5-DAC3-3240-8C18-7FB232B9DA5E}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -468,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -477,107 +445,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>6.2012319960228506E+17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>6.2012319960228506E+17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>6.2012319960228506E+17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>6.2012319960228506E+17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>3333</v>
-      </c>
-      <c r="D6">
-        <v>666</v>
-      </c>
-      <c r="E6">
-        <v>6.2012319960228506E+17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
